--- a/ExcelFiles/PatientSummary.xlsx
+++ b/ExcelFiles/PatientSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33294F0D-7D55-41B7-BBA2-2F0CC3228FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5582F2-D0D8-4A07-8B3D-393AAF19224B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="AddMedication" sheetId="4" r:id="rId4"/>
     <sheet name="EditMedication" sheetId="6" r:id="rId5"/>
     <sheet name="MedicationEDS" sheetId="5" r:id="rId6"/>
+    <sheet name="AddExamination" sheetId="7" r:id="rId7"/>
+    <sheet name="EditExamination" sheetId="8" r:id="rId8"/>
+    <sheet name="AddRecommendations" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="149">
   <si>
     <t>username</t>
   </si>
@@ -259,103 +262,235 @@
     <t>Riomedtest</t>
   </si>
   <si>
+    <t>pacr_category</t>
+  </si>
+  <si>
+    <t>Medication</t>
+  </si>
+  <si>
+    <t>pacr_que_name</t>
+  </si>
+  <si>
+    <t>medi_dose</t>
+  </si>
+  <si>
+    <t>medi_frequency</t>
+  </si>
+  <si>
+    <t>12 Hours</t>
+  </si>
+  <si>
+    <t>medi_method</t>
+  </si>
+  <si>
+    <t>Oral</t>
+  </si>
+  <si>
+    <t>medi_duration</t>
+  </si>
+  <si>
+    <t>medi_start_date</t>
+  </si>
+  <si>
+    <t>medi_stop_date</t>
+  </si>
+  <si>
+    <t>medi_status</t>
+  </si>
+  <si>
+    <t>medi_risk</t>
+  </si>
+  <si>
+    <t>medi_dispensed</t>
+  </si>
+  <si>
+    <t>medi_prescribed_by</t>
+  </si>
+  <si>
+    <t>medi_route</t>
+  </si>
+  <si>
+    <t>Metformin 500mg tablets</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>16/04/2024</t>
+  </si>
+  <si>
+    <t>18/04/2024</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>medi_notes</t>
+  </si>
+  <si>
+    <t>Added notes for testing</t>
+  </si>
+  <si>
+    <t>24 Hours</t>
+  </si>
+  <si>
+    <t>Hospital consultant</t>
+  </si>
+  <si>
+    <t>Updated notes for testing</t>
+  </si>
+  <si>
+    <t>Prescribed</t>
+  </si>
+  <si>
+    <t>17/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>medi_stopped_reason_eli_text</t>
+  </si>
+  <si>
+    <t>Dose completed</t>
+  </si>
+  <si>
+    <t>mse_text</t>
+  </si>
+  <si>
+    <t>Drowsiness</t>
+  </si>
+  <si>
+    <t>Aspirin 25mg capsules</t>
+  </si>
+  <si>
+    <t>pacr_status</t>
+  </si>
+  <si>
+    <t>pacr_risk</t>
+  </si>
+  <si>
+    <t>paprd_cost</t>
+  </si>
+  <si>
+    <t>pcl_location_name</t>
+  </si>
+  <si>
+    <t>Cardio Location</t>
+  </si>
+  <si>
+    <t>paprd_endorsement</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>meded_value</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>meded_value_PGD</t>
+  </si>
+  <si>
+    <t>PGD</t>
+  </si>
+  <si>
+    <t>meded_value_Administrator</t>
+  </si>
+  <si>
+    <t>meded_value_MaxReffills</t>
+  </si>
+  <si>
+    <t>meded_value_Unit</t>
+  </si>
+  <si>
+    <t>Tab</t>
+  </si>
+  <si>
+    <t>meded_value_Quantity</t>
+  </si>
+  <si>
+    <t>Adherent</t>
+  </si>
+  <si>
+    <t>meded_value_Adherent</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>meded_value_Price_check_quantity</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>05/11/2023</t>
+  </si>
+  <si>
     <t>hosp2305Id006</t>
   </si>
   <si>
-    <t>pacr_category</t>
-  </si>
-  <si>
-    <t>Medication</t>
-  </si>
-  <si>
-    <t>pacr_que_name</t>
-  </si>
-  <si>
-    <t>medi_dose</t>
-  </si>
-  <si>
-    <t>medi_frequency</t>
-  </si>
-  <si>
-    <t>12 Hours</t>
-  </si>
-  <si>
-    <t>medi_method</t>
-  </si>
-  <si>
-    <t>Oral</t>
-  </si>
-  <si>
-    <t>medi_duration</t>
-  </si>
-  <si>
-    <t>medi_start_date</t>
-  </si>
-  <si>
-    <t>medi_stop_date</t>
-  </si>
-  <si>
-    <t>medi_status</t>
-  </si>
-  <si>
-    <t>medi_risk</t>
-  </si>
-  <si>
-    <t>medi_dispensed</t>
-  </si>
-  <si>
-    <t>medi_prescribed_by</t>
-  </si>
-  <si>
-    <t>medi_route</t>
-  </si>
-  <si>
-    <t>Metformin 500mg tablets</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>16/04/2024</t>
-  </si>
-  <si>
-    <t>18/04/2024</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>GP</t>
-  </si>
-  <si>
-    <t>medi_notes</t>
-  </si>
-  <si>
-    <t>Added notes for testing</t>
-  </si>
-  <si>
-    <t>24 Hours</t>
-  </si>
-  <si>
-    <t>Hospital consultant</t>
-  </si>
-  <si>
-    <t>Updated notes for testing</t>
-  </si>
-  <si>
-    <t>Prescribed</t>
-  </si>
-  <si>
-    <t>detailsa</t>
-  </si>
-  <si>
-    <t>02/09/2023</t>
-  </si>
-  <si>
-    <t>17/04/2024</t>
-  </si>
-  <si>
-    <t>19/04/2024</t>
+    <t>exam_outcome</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>exam_notes</t>
+  </si>
+  <si>
+    <t>Added for Notes</t>
+  </si>
+  <si>
+    <t>examed_value</t>
+  </si>
+  <si>
+    <t>Edited for Notes</t>
+  </si>
+  <si>
+    <t>Examination</t>
+  </si>
+  <si>
+    <t>Dry eye</t>
+  </si>
+  <si>
+    <t>pacr_delete_reason</t>
+  </si>
+  <si>
+    <t>Delete for testing</t>
+  </si>
+  <si>
+    <t>pacr_que_name_recommendation</t>
+  </si>
+  <si>
+    <t>Rectoplasty</t>
+  </si>
+  <si>
+    <t>eli_text</t>
+  </si>
+  <si>
+    <t>Exm subsection</t>
+  </si>
+  <si>
+    <t>pacrd_subcategory_eli_code</t>
+  </si>
+  <si>
+    <t>EX1008</t>
+  </si>
+  <si>
+    <t>Recommendations</t>
+  </si>
+  <si>
+    <t>LinuxR</t>
   </si>
 </sst>
 </file>
@@ -379,10 +514,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF474747"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF667593"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -406,7 +542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -424,8 +560,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -710,7 +847,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF0DF87-67F2-4E87-A7EE-C4365800D834}">
   <dimension ref="A1:AV2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,14 +1050,14 @@
       </c>
     </row>
     <row r="2" spans="1:48" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
-        <v>72</v>
+      <c r="B2" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>71</v>
@@ -929,7 +1066,7 @@
         <v>54</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>55</v>
@@ -1020,106 +1157,197 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD9439C-0973-45AC-88BC-21584AF7E144}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="8" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
+    <col min="14" max="15" width="15.5703125" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" customWidth="1"/>
+    <col min="18" max="19" width="16" customWidth="1"/>
+    <col min="20" max="22" width="13.140625" customWidth="1"/>
+    <col min="23" max="23" width="17.7109375" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" customWidth="1"/>
+    <col min="27" max="27" width="28.42578125" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R1" t="s">
+        <v>104</v>
+      </c>
+      <c r="S1" t="s">
+        <v>112</v>
+      </c>
+      <c r="T1" t="s">
+        <v>109</v>
+      </c>
+      <c r="U1" t="s">
+        <v>127</v>
+      </c>
+      <c r="V1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W1" t="s">
+        <v>117</v>
+      </c>
+      <c r="X1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>73</v>
       </c>
-      <c r="B1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
         <v>77</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>79</v>
       </c>
-      <c r="F1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="H2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="K2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2" t="s">
         <v>92</v>
       </c>
-      <c r="J2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
+        <v>111</v>
+      </c>
+      <c r="P2" t="s">
         <v>94</v>
       </c>
-      <c r="N2" t="s">
-        <v>96</v>
+      <c r="Q2" t="s">
+        <v>103</v>
+      </c>
+      <c r="R2" t="s">
+        <v>105</v>
+      </c>
+      <c r="S2" t="s">
+        <v>113</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="V2" t="s">
+        <v>115</v>
+      </c>
+      <c r="W2" t="s">
+        <v>118</v>
+      </c>
+      <c r="X2">
+        <v>5</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1131,7 +1359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43B544E-637D-4FD8-A2B1-2145904BBFF0}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -1152,84 +1380,84 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" t="s">
-        <v>77</v>
-      </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>82</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>84</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>85</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>86</v>
       </c>
-      <c r="M1" t="s">
-        <v>87</v>
-      </c>
       <c r="N1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" t="s">
         <v>97</v>
-      </c>
-      <c r="E2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J2" t="s">
-        <v>100</v>
-      </c>
-      <c r="M2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N2" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1250,4 +1478,182 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EC7FC3-A185-46F7-A2D4-55C9E247ADD9}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="9">
+        <v>45407</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538BA7B8-E3A5-4977-A6D8-AD18062987D5}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="9">
+        <v>45407</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7070D364-07A9-4E81-9AAD-6D06CFE64A7E}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>